--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3265.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3265.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.27314846054423</v>
+        <v>2.823791027069092</v>
       </c>
       <c r="B1">
-        <v>1.759521584493119</v>
+        <v>3.012819766998291</v>
       </c>
       <c r="C1">
-        <v>3.061658205357361</v>
+        <v>1.896028161048889</v>
       </c>
       <c r="D1">
-        <v>5.365520387995804</v>
+        <v>1.614491939544678</v>
       </c>
       <c r="E1">
-        <v>1.003310327246516</v>
+        <v>1.476139545440674</v>
       </c>
     </row>
   </sheetData>
